--- a/biology/Botanique/Campynemataceae/Campynemataceae.xlsx
+++ b/biology/Botanique/Campynemataceae/Campynemataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Campynemataceae est une petite famille de plantes monocotylédones. Elle comprend 2 à 4 espèces réparties en 2 genres.
 Ce sont des plantes herbacées, pérennes, des régions tempérées, originaires de Tasmanie et de Nouvelle-Calédonie.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Campynema qui dérive du grec καμπνλός (kampylos) plié, courbé et νήμα (nema) fil en référence aux « filaments courbes des étamines »[1].
-L'espèce Campynema lineare a été décrite par le botaniste Jacques Julien de La Billardière (1755-1834) et publié en 1804 dans Novae Hollandiae Plantarum Specimen (en)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Campynema qui dérive du grec καμπνλός (kampylos) plié, courbé et νήμα (nema) fil en référence aux « filaments courbes des étamines ».
+L'espèce Campynema lineare a été décrite par le botaniste Jacques Julien de La Billardière (1755-1834) et publié en 1804 dans Novae Hollandiae Plantarum Specimen (en).
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3], cette famille n'existe pas et les genres sont classés parmi les Liliaceae.
-Elle a été créée par la classification phylogénétique APG II (2003)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille n'existe pas et les genres sont classés parmi les Liliaceae.
+Elle a été créée par la classification phylogénétique APG II (2003).
 </t>
         </is>
       </c>
@@ -576,14 +592,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (15 avr. 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (15 avr. 2010) :
 genre Campynema
 Campynema lineare
 genre Campynemanthe
 Campynemanthe viridiflora
-Selon DELTA Angio           (15 avr. 2010)[6] :
+Selon DELTA Angio           (15 avr. 2010) :
 genre Campynema
 genre Campynemanthe</t>
         </is>
